--- a/0 Worksheets/AllSessions.xlsx
+++ b/0 Worksheets/AllSessions.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_001" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Difficulty" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_002" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_003" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -426,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,6 +1246,384 @@
         <v>5.27</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20:52:51</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Addition</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:52:51</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:57:07</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20:52:51</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Subtraction</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:52:51</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:57:07</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20:52:51</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:52:51</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:57:07</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20:52:51</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:52:51</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:57:07</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>20:52:51</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fractions</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>50</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:52:51</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:57:07</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20:52:51</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Factors &amp; Primes</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:52:51</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:57:07</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>20:52:51</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Prime Factorization</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:52:51</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:57:07</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>20:52:51</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>HCF</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:52:51</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:57:07</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>20:52:51</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>LCM</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:52:51</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-07-09 20:57:07</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1256,7 +1635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1374,10 +1753,45 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20:52:51</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20:57:07</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n">
+        <v>85</v>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>Summary_003</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" location="Summary_001!A1" display="Summary_001"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H3" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1684,7 +2098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -1861,6 +2275,93 @@
         </is>
       </c>
       <c r="U2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20:52:51</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
@@ -2164,4 +2665,299 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Question Type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Total Questions</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Correct Answers</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Total Attempts</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Accuracy (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Addition</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Subtraction</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fractions</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Factors &amp; Primes</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Prime Factorization</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HCF</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LCM</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>08:52PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>08:57PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4.27 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Questions</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Correct</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Overall Accuracy (%)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/0 Worksheets/AllSessions.xlsx
+++ b/0 Worksheets/AllSessions.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8dac1ccc15e047b/Wisdom/Sikhi/6 Machine Learning/2 CS50's Introduction to Programming with Python/0.8 Codex OpenAI/0 Worksheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_134404DB3163AE7D82FC93F101E6026A0332DF6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{532698A9-DCF5-4BD9-8448-F4343D17D823}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2F5FE4702028B7966F249971F343205F97E097ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6211F25B-F05B-4051-AFF6-A6904AAD0F7A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
-    <sheet name="Index" sheetId="2" r:id="rId2"/>
-    <sheet name="Summary_001" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary_002" sheetId="4" r:id="rId4"/>
-    <sheet name="Summary_003" sheetId="5" r:id="rId5"/>
-    <sheet name="Summary_004" sheetId="6" r:id="rId6"/>
-    <sheet name="Difficulty" sheetId="7" r:id="rId7"/>
+    <sheet name="Difficulty" sheetId="7" r:id="rId2"/>
+    <sheet name="Index" sheetId="2" r:id="rId3"/>
+    <sheet name="Summary_001" sheetId="3" r:id="rId4"/>
+    <sheet name="Summary_002" sheetId="4" r:id="rId5"/>
+    <sheet name="Summary_003" sheetId="5" r:id="rId6"/>
+    <sheet name="Summary_004" sheetId="6" r:id="rId7"/>
+    <sheet name="Summary_005" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -124,6 +125,15 @@
     <t>2025-07-09 21:02:59</t>
   </si>
   <si>
+    <t>21:28:35</t>
+  </si>
+  <si>
+    <t>2025-07-09 21:28:35</t>
+  </si>
+  <si>
+    <t>2025-07-09 21:34:21</t>
+  </si>
+  <si>
     <t>Session Number</t>
   </si>
   <si>
@@ -154,6 +164,12 @@
     <t>Summary_004</t>
   </si>
   <si>
+    <t>21:34:21</t>
+  </si>
+  <si>
+    <t>Summary_005</t>
+  </si>
+  <si>
     <t>Metric</t>
   </si>
   <si>
@@ -203,6 +219,15 @@
   </si>
   <si>
     <t>Difficulty Score</t>
+  </si>
+  <si>
+    <t>09:28PM</t>
+  </si>
+  <si>
+    <t>09:34PM</t>
+  </si>
+  <si>
+    <t>5.77 minutes</t>
   </si>
 </sst>
 </file>
@@ -552,9 +577,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A39" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1745,14 +1770,433 @@
         <v>3.59</v>
       </c>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>50</v>
+      </c>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46">
+        <v>5.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>10.029999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>11.17</v>
+      </c>
+      <c r="C11">
+        <v>5.71</v>
+      </c>
+      <c r="D11">
+        <v>12.6</v>
+      </c>
+      <c r="E11">
+        <v>8.34</v>
+      </c>
+      <c r="F11">
+        <v>7.77</v>
+      </c>
+      <c r="G11">
+        <v>17.07</v>
+      </c>
+      <c r="H11">
+        <v>10.4</v>
+      </c>
+      <c r="I11">
+        <v>11.44</v>
+      </c>
+      <c r="J11">
+        <v>11.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1760,7 +2204,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1781,7 +2225,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1795,7 +2239,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>3.59</v>
@@ -1807,10 +2251,10 @@
         <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1821,7 +2265,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>5.27</v>
@@ -1833,10 +2277,10 @@
         <v>80</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1847,7 +2291,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>4.2699999999999996</v>
@@ -1859,10 +2303,10 @@
         <v>85</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1873,7 +2317,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>3.59</v>
@@ -1885,7 +2329,33 @@
         <v>60</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>5.77</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1894,16 +2364,17 @@
     <hyperlink ref="H3" location="Summary_002!A1" display="Summary_002" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="H4" location="Summary_003!A1" display="Summary_003" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="H5" location="Summary_004!A1" display="Summary_004" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H6" location="Summary_005!A1" display="Summary_005" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2079,10 +2550,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2090,7 +2561,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2098,7 +2569,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2106,7 +2577,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2119,7 +2590,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -2127,7 +2598,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>50</v>
@@ -2138,7 +2609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -2318,10 +2789,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2329,7 +2800,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2337,7 +2808,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2345,7 +2816,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2358,7 +2829,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2366,7 +2837,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>80</v>
@@ -2377,7 +2848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -2557,10 +3028,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2568,7 +3039,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2576,7 +3047,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2584,7 +3055,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2597,7 +3068,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -2605,7 +3076,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>85</v>
@@ -2616,7 +3087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -2796,10 +3267,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2807,7 +3278,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2815,7 +3286,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2823,7 +3294,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2836,7 +3307,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -2844,7 +3315,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>60</v>
@@ -2855,97 +3326,238 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B10"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>11.17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
-        <v>4.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
-        <v>6.54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7">
-        <v>10.029999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
-        <v>5.86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10">
-        <v>6.99</v>
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/0 Worksheets/AllSessions.xlsx
+++ b/0 Worksheets/AllSessions.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_001" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Difficulty" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_002" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_003" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -426,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,6 +1241,384 @@
       </c>
       <c r="J19" t="n">
         <v>1.79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>21:58:36</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Addition</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-07-09 21:58:36</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:00:34</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>21:58:36</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Subtraction</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-07-09 21:58:36</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:00:34</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>21:58:36</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-07-09 21:58:36</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:00:34</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>21:58:36</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-07-09 21:58:36</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:00:34</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>21:58:36</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fractions</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-07-09 21:58:36</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:00:34</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>21:58:36</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Factors &amp; Primes</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-07-09 21:58:36</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:00:34</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>21:58:36</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Prime Factorization</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-07-09 21:58:36</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:00:34</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>21:58:36</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>HCF</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-07-09 21:58:36</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:00:34</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>21:58:36</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>LCM</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-07-09 21:58:36</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:00:34</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>1.96</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1371,10 +1750,45 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21:58:36</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22:00:34</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>Summary_003</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" location="Summary_001!A1" display="Summary_001"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H3" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1681,7 +2095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -1810,6 +2224,40 @@
       </c>
       <c r="J3" t="n">
         <v>6.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:00:34</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.4</v>
       </c>
     </row>
   </sheetData>
@@ -2110,4 +2558,299 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Question Type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Total Questions</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Correct Answers</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Total Attempts</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Accuracy (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Addition</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Subtraction</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fractions</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Factors &amp; Primes</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Prime Factorization</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HCF</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LCM</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>09:58PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1.96 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Questions</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Correct</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Overall Accuracy (%)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/0 Worksheets/AllSessions.xlsx
+++ b/0 Worksheets/AllSessions.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_001" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Difficulty" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_002" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_003" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1241,6 +1242,384 @@
       </c>
       <c r="J19" t="n">
         <v>11.05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>07:15:24</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Addition</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:15:24</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:19:51</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>07:15:24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Subtraction</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:15:24</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:19:51</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>07:15:24</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:15:24</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:19:51</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>07:15:24</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:15:24</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:19:51</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>07:15:24</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fractions</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>100</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:15:24</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:19:51</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>07:15:24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Factors &amp; Primes</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:15:24</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:19:51</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>07:15:24</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Prime Factorization</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:15:24</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:19:51</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>07:15:24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>HCF</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:15:24</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:19:51</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>07:15:24</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>LCM</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:15:24</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:19:51</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>4.45</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1372,10 +1751,45 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07:15:24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>07:19:51</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>Summary_003</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1682,7 +2096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1808,6 +2222,40 @@
       </c>
       <c r="J3" t="n">
         <v>6.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:19:51</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.7</v>
       </c>
     </row>
   </sheetData>
@@ -2108,4 +2556,299 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Question Type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Total Questions</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Correct Answers</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Total Attempts</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Accuracy (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Addition</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Subtraction</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fractions</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Factors &amp; Primes</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Prime Factorization</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HCF</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LCM</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>07:15AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>07:19AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4.45 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Questions</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Correct</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Overall Accuracy (%)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/0 Worksheets/AllSessions.xlsx
+++ b/0 Worksheets/AllSessions.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Difficulty" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_002" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_003" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_004" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,6 +1621,384 @@
       </c>
       <c r="J28" t="n">
         <v>4.45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>07:22:35</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Addition</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:22:35</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:25:27</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>07:22:35</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Subtraction</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>100</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:22:35</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:25:27</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>07:22:35</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7</v>
+      </c>
+      <c r="G31" t="n">
+        <v>100</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:22:35</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:25:27</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>07:22:35</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:22:35</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:25:27</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>07:22:35</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fractions</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:22:35</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:25:27</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>07:22:35</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Factors &amp; Primes</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:22:35</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:25:27</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>07:22:35</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Prime Factorization</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:22:35</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:25:27</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>07:22:35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>HCF</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:22:35</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:25:27</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>07:22:35</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>LCM</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:22:35</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:25:27</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>2.86</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +2012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1785,11 +2164,46 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07:22:35</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>07:25:27</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Summary_004</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H3" r:id="rId2"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2096,7 +2510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2255,6 +2669,40 @@
         <v>17.66</v>
       </c>
       <c r="J4" t="n">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-10 07:25:27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="J5" t="n">
         <v>12.7</v>
       </c>
     </row>
@@ -2851,4 +3299,299 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Question Type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Total Questions</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Correct Answers</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Total Attempts</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Accuracy (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Addition</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Subtraction</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fractions</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Factors &amp; Primes</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Prime Factorization</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HCF</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LCM</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>07:22AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>07:25AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2.86 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Questions</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Correct</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Overall Accuracy (%)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/0 Worksheets/AllSessions.xlsx
+++ b/0 Worksheets/AllSessions.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Index" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_001" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Difficulty" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_002" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,6 +863,384 @@
       </c>
       <c r="J10" t="n">
         <v>75.22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>19:44:43</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Addition</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:44:43</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:47:51</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>19:44:43</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Subtraction</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:44:43</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:47:51</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>19:44:43</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:44:43</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:47:51</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>19:44:43</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:44:43</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:47:51</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>19:44:43</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fractions</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:44:43</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:47:51</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>19:44:43</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Factors &amp; Primes</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:44:43</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:47:51</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>19:44:43</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Prime Factorization</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>100</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:44:43</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:47:51</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>19:44:43</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>HCF</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:44:43</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:47:51</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>19:44:43</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>LCM</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:44:43</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:47:51</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>3.14</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +1254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,9 +1338,44 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19:44:43</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19:47:51</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>Summary_002</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1268,7 +1682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1362,6 +1776,335 @@
         <v>1.9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-10 19:47:52</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Question Type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Total Questions</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Correct Answers</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Total Attempts</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Accuracy (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Addition</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Subtraction</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fractions</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Factors &amp; Primes</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Prime Factorization</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HCF</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LCM</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>07:44PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>07:47PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3.14 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Questions</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Correct</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Overall Accuracy (%)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
